--- a/data processing/Input Files/Metadata_File.xlsx
+++ b/data processing/Input Files/Metadata_File.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\BIS Consultancy\Product Development\Scenarios_Dashboard\Data Processing\Input Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcrook\Documents\scenario_dashboard\data processing\Input Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB07FDC-B588-4A1C-9AA6-B7E0AC06528C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C392A22-A847-4BE4-B03B-A8C1EBC557EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="9060" windowWidth="23256" windowHeight="12576" xr2:uid="{DB5C35A7-A286-45A6-BD34-CA3CE6527B56}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB5C35A7-A286-45A6-BD34-CA3CE6527B56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
   <si>
     <t>Population</t>
   </si>
@@ -261,6 +261,30 @@
   </si>
   <si>
     <t>Gross Value Added &gt;&gt; Division S &gt;&gt; Other Services</t>
+  </si>
+  <si>
+    <t>NIMTOT</t>
+  </si>
+  <si>
+    <t>NOMTOT</t>
+  </si>
+  <si>
+    <t>NATOT</t>
+  </si>
+  <si>
+    <t>Net Interstate Migration</t>
+  </si>
+  <si>
+    <t>Net Overseas Migration</t>
+  </si>
+  <si>
+    <t>Natural Increase</t>
+  </si>
+  <si>
+    <t>POPINC</t>
+  </si>
+  <si>
+    <t>Total Population Increase</t>
   </si>
 </sst>
 </file>
@@ -296,12 +320,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -618,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8FE226-7777-4632-A88A-EAA48E7E33D6}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,66 +688,58 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -731,10 +750,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -745,10 +764,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -759,10 +778,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -773,10 +792,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -787,10 +806,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -801,10 +820,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -815,10 +834,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -829,10 +848,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -843,261 +862,343 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>73</v>
       </c>
     </row>

--- a/data processing/Input Files/Metadata_File.xlsx
+++ b/data processing/Input Files/Metadata_File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcrook\Documents\scenario_dashboard\data processing\Input Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C392A22-A847-4BE4-B03B-A8C1EBC557EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8B6B57-0133-4965-AB36-994749280987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB5C35A7-A286-45A6-BD34-CA3CE6527B56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB5C35A7-A286-45A6-BD34-CA3CE6527B56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -269,9 +269,6 @@
     <t>NOMTOT</t>
   </si>
   <si>
-    <t>NATOT</t>
-  </si>
-  <si>
     <t>Net Interstate Migration</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>Total Population Increase</t>
+  </si>
+  <si>
+    <t>NATTOT</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +691,7 @@
         <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -703,7 +703,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -724,10 +724,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>

--- a/data processing/Input Files/Metadata_File.xlsx
+++ b/data processing/Input Files/Metadata_File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcrook\Documents\scenario_dashboard\data processing\Input Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8B6B57-0133-4965-AB36-994749280987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78F240A-64BD-4E35-900C-6C17F399DD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB5C35A7-A286-45A6-BD34-CA3CE6527B56}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB5C35A7-A286-45A6-BD34-CA3CE6527B56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -236,9 +236,6 @@
     <t>Index (FY12=100)</t>
   </si>
   <si>
-    <t xml:space="preserve">Millions: 2019-20 prices </t>
-  </si>
-  <si>
     <t>CPAD</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>NATTOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Millions: 2020-21 prices </t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D7" sqref="D7:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,10 +688,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -724,10 +724,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -745,7 +745,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -829,7 +829,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -843,7 +843,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -857,7 +857,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -871,7 +871,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -885,7 +885,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -899,7 +899,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -913,7 +913,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -927,7 +927,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -941,7 +941,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -955,7 +955,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -969,7 +969,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -983,7 +983,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1011,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1025,7 +1025,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -1044,7 +1044,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1063,7 +1063,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1082,7 +1082,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -1095,13 +1095,13 @@
         <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -1113,13 +1113,13 @@
         <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="I32" s="3"/>
       <c r="L32" s="3"/>
@@ -1135,7 +1135,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1149,7 +1149,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1176,30 +1176,30 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/data processing/Input Files/Metadata_File.xlsx
+++ b/data processing/Input Files/Metadata_File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcrook\Documents\scenario_dashboard\data processing\Input Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78F240A-64BD-4E35-900C-6C17F399DD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9852CFDE-7494-47C2-951E-68A42D16AB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB5C35A7-A286-45A6-BD34-CA3CE6527B56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB5C35A7-A286-45A6-BD34-CA3CE6527B56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="86">
   <si>
     <t>Population</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t xml:space="preserve">Millions: 2020-21 prices </t>
+  </si>
+  <si>
+    <t>GVAO_PLCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Value Added &gt;&gt; Division R &amp; S &gt;&gt; Other Services &amp; Arts and Recreation Services </t>
   </si>
 </sst>
 </file>
@@ -645,16 +651,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8FE226-7777-4632-A88A-EAA48E7E33D6}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D34"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
@@ -1124,81 +1130,97 @@
       <c r="I32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>72</v>
       </c>
     </row>
